--- a/medicine/Enfance/Job_(illustrateur)/Job_(illustrateur).xlsx
+++ b/medicine/Enfance/Job_(illustrateur)/Job_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Onfroy de Bréville, dit Job, est un dessinateur, caricaturiste et illustrateur français né  le 25 novembre 1858 à Bar-le-Duc et mort le 15 septembre 1931 à Neuilly-sur-Seine.
 Son nom d'artiste, « Job », est composé à partir de l'initiale de son prénom usuel Jacques et de celles de son nom de famille, Onfroy de Bréville. Son père s'étant opposé à ce qu'il entre à l'École des beaux-arts à sa sortie du collège Stanislas, il s'engage dans l'armée, mais revient à Paris en 1882. De cet intermède, il conserve un goût immodéré pour la chose militaire, le patriotisme, voire le chauvinisme. Il intègre enfin l'École des beaux-arts et expose au Salon des artistes français en 1886. Il y reçoit un accueil mitigé. Il commence alors une carrière de dessinateur et contribue à La Caricature et à La Nouvelle Lune à coup de portraits charges.
@@ -514,9 +526,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Onfroy de Bréville naît le 25 novembre 1858 à Bar-le-Duc en Lorraine. Il est le fils de Georges Marie Onfroy de Bréville, substitut du procureur à Avallon, et de son épouse Anatoline Robertine née du Val d'Eprémesnil. Il a un frère, Pierre, né en 1861 et qui devient plus tard un musicien reconnu. Le jeune Jacques se montre très vite doué pour le dessin et croque de nombreuses saynètes militaires, à l'image de la Prise de Chartres qu'il réalise à l'âge de 7 ans. En 1868, après que sa famille a déménagé à Paris, il entre à l'école Bossuet avant de poursuivre sa scolarité au collège Stanislas. À la même époque, il compose des pièces de théâtre avec son frère tout en s'intéressant à la caricature : il signe ainsi en 1876 une « Petite Définition » rappelant l'attitude de l'écrivain Victor Hugo en faveur des communards[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Onfroy de Bréville naît le 25 novembre 1858 à Bar-le-Duc en Lorraine. Il est le fils de Georges Marie Onfroy de Bréville, substitut du procureur à Avallon, et de son épouse Anatoline Robertine née du Val d'Eprémesnil. Il a un frère, Pierre, né en 1861 et qui devient plus tard un musicien reconnu. Le jeune Jacques se montre très vite doué pour le dessin et croque de nombreuses saynètes militaires, à l'image de la Prise de Chartres qu'il réalise à l'âge de 7 ans. En 1868, après que sa famille a déménagé à Paris, il entre à l'école Bossuet avant de poursuivre sa scolarité au collège Stanislas. À la même époque, il compose des pièces de théâtre avec son frère tout en s'intéressant à la caricature : il signe ainsi en 1876 une « Petite Définition » rappelant l'attitude de l'écrivain Victor Hugo en faveur des communards.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Onfroy de Bréville est chevalier de la Légion d'honneur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Onfroy de Bréville est chevalier de la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Histoire d'un bonnet à poil (texte de J. de Marthold), gr. in-8°, Librairie d'Education de la Jeunesse, 1888 ;
 Jean la Poudre et Flamberge au vent (texte de Henry de Brisay), gr. in-8°, Librairie d'Education de la Jeunesse, 1889 ;
@@ -646,7 +664,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Job, Napoléon mis en images », Boulogne-Billancourt, bibliothèque Marmottan, 8 octobre – 15 novembre 1980</t>
         </is>
